--- a/output_tables/DR2_results_inv__M_LIN_non_calibrated_421S.xlsx
+++ b/output_tables/DR2_results_inv__M_LIN_non_calibrated_421S.xlsx
@@ -475,16 +475,16 @@
         <v>-17.2525</v>
       </c>
       <c r="C2" t="n">
-        <v>-14.57</v>
+        <v>-14.566</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.8955</v>
+        <v>-16.8965</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.067</v>
+        <v>-4.061</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.66</v>
+        <v>-46.7345</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables/DR2_results_inv__M_LIN_non_calibrated_421S.xlsx
+++ b/output_tables/DR2_results_inv__M_LIN_non_calibrated_421S.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.2525</v>
+        <v>-16.2295</v>
       </c>
       <c r="C2" t="n">
-        <v>-14.566</v>
+        <v>-12.281</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.8965</v>
+        <v>-15.8955</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.061</v>
+        <v>-7.081</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.7345</v>
+        <v>-36.97199999999999</v>
       </c>
     </row>
   </sheetData>
